--- a/report_ca_nhan/LONG XUYÊN/Tổng hợp lương nhân viên tại LONG XUYÊN 7-2024.xlsx.xlsx
+++ b/report_ca_nhan/LONG XUYÊN/Tổng hợp lương nhân viên tại LONG XUYÊN 7-2024.xlsx.xlsx
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4707500</v>
+        <v>5045357.142857142</v>
       </c>
     </row>
     <row r="3">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3381428.571428571</v>
+        <v>3559285.714285714</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2687500</v>
+        <v>2829642.857142857</v>
       </c>
     </row>
     <row r="5">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5789285.714285715</v>
+        <v>6202857.142857143</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2758571.428571429</v>
+        <v>2900714.285714285</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>19324285.71428572</v>
+        <v>20537857.14285714</v>
       </c>
     </row>
   </sheetData>

--- a/report_ca_nhan/LONG XUYÊN/Tổng hợp lương nhân viên tại LONG XUYÊN 7-2024.xlsx.xlsx
+++ b/report_ca_nhan/LONG XUYÊN/Tổng hợp lương nhân viên tại LONG XUYÊN 7-2024.xlsx.xlsx
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5045357.142857142</v>
+        <v>6221071.428571429</v>
       </c>
     </row>
     <row r="3">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3559285.714285714</v>
+        <v>3915000</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2829642.857142857</v>
+        <v>3163928.571428571</v>
       </c>
     </row>
     <row r="5">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6202857.142857143</v>
+        <v>6630000</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2900714.285714285</v>
+        <v>3185000</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>20537857.14285714</v>
+        <v>23115000</v>
       </c>
     </row>
   </sheetData>
